--- a/GrupLAC/Input/Base.xlsx
+++ b/GrupLAC/Input/Base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Director</t>
   </si>
@@ -44,36 +44,6 @@
     <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000724</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>ee</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001686</t>
   </si>
   <si>
@@ -87,6 +57,45 @@
   </si>
   <si>
     <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000422</t>
+  </si>
+  <si>
+    <t>PIGA: Política, Información y Gestión Ambiental</t>
+  </si>
+  <si>
+    <t>LEONEL VEGA MORA</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN GEOTECNIA - GIGUN</t>
+  </si>
+  <si>
+    <t>FERNEY BETANCOURT CARDOZO</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO NINO VASQUEZ</t>
+  </si>
+  <si>
+    <t>LABORATORIO DE INVESTIGACIÓN EN SISTEMAS INTELIGENTES - LISI</t>
+  </si>
+  <si>
+    <t>Mecanismos de Desarrollo Limpio y Gestión Energética</t>
+  </si>
+  <si>
+    <t>FABIO EMIRO SIERRA VARGAS</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE INVESTIGACION SOBRE ADQUISICION Y ANALISIS DE SEÑALES PAAS-UN</t>
+  </si>
+  <si>
+    <t>ERNESTO PEREZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001093</t>
+  </si>
+  <si>
+    <t>SONIA ESPERANZA MONROY VARELA</t>
+  </si>
+  <si>
+    <t>COMPLEXUS</t>
   </si>
 </sst>
 </file>
@@ -144,13 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -432,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,57 +479,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -529,8 +550,10 @@
     <hyperlink ref="C6" r:id="rId3"/>
     <hyperlink ref="C7" r:id="rId4"/>
     <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/GrupLAC/Input/Base.xlsx
+++ b/GrupLAC/Input/Base.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GrupLAC/Input/Base.xlsx
+++ b/GrupLAC/Input/Base.xlsx
@@ -153,14 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -444,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +483,7 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -539,7 +538,7 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
     </row>

--- a/GrupLAC/Input/Base.xlsx
+++ b/GrupLAC/Input/Base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Director</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>COMPLEXUS</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000019540</t>
+  </si>
+  <si>
+    <t>Grupo de Prueba</t>
+  </si>
+  <si>
+    <t>MANUEL FERNANDO NEIRA EMBUS</t>
   </si>
 </sst>
 </file>
@@ -441,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,6 +551,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1"/>
@@ -551,8 +571,9 @@
     <hyperlink ref="C2" r:id="rId5"/>
     <hyperlink ref="C3" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/GrupLAC/Input/Base.xlsx
+++ b/GrupLAC/Input/Base.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Director</t>
   </si>
@@ -98,20 +98,407 @@
     <t>COMPLEXUS</t>
   </si>
   <si>
-    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000019540</t>
-  </si>
-  <si>
-    <t>Grupo de Prueba</t>
-  </si>
-  <si>
-    <t>MANUEL FERNANDO NEIRA EMBUS</t>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002066</t>
+  </si>
+  <si>
+    <t>GTI - GRUPO DE GESTIÓN EN TECNOLOGÍA, INNOVACIÓN Y DISEÑO AGROINDUSTRIAL</t>
+  </si>
+  <si>
+    <t>JOHN FABIO ACUÑA CAITA</t>
+  </si>
+  <si>
+    <t>LABORATORIO DE BIOMIMÉTICOS: GRUPO DE MECANOBIOLOGÍA DE TEJIDOS Y ÓRGANOS</t>
+  </si>
+  <si>
+    <t>GARZON ALVARADO DIEGO ALEXANDER</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000015681</t>
+  </si>
+  <si>
+    <t>Grupo de Investigación en Tecnología e Innovación para el Desarrollo Comunitario GITIDC</t>
+  </si>
+  <si>
+    <t>JOSE ISMAEL PENA REYES</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000516</t>
+  </si>
+  <si>
+    <t>GRUPO POSCOSECHA DE PRODUCTOS AGRICOLAS</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA PEREZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>PROGRAMA DE INVESTIGACIÓN EN TRÁNSITO Y TRANSPORTE ­PIT­</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000445</t>
+  </si>
+  <si>
+    <t>CESAR AUGUSTO RUIZ ROJAS</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000415</t>
+  </si>
+  <si>
+    <t>ERASMO ALFREDO RODRIGUEZ SANDOVAL</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN INGENIERÍA DE RECURSOS HIDRÍCOS ­ GIREH</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN BIOMECÁNICA / UNIVERSIDAD NACIONAL DE COLOMBIA GIBM­-UNCB</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000448</t>
+  </si>
+  <si>
+    <t>CARLOS JULIO CORTES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004188</t>
+  </si>
+  <si>
+    <t>GRIEGO - GRUPO DE INVESTIGACIÓN EN GESTIÓN Y ORGANIZACIÓN</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO RODRIGUEZ ROMERO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000416</t>
+  </si>
+  <si>
+    <t>ANÁLISIS, DISEÑO Y MATERIALES ­ GIES</t>
+  </si>
+  <si>
+    <t>DORIAN LUIS LINERO SEGRERA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000015023</t>
+  </si>
+  <si>
+    <t>JESUS HERNAN CAMACHO TAMAYO</t>
+  </si>
+  <si>
+    <t>Ingeniería de Biosistemas</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002158</t>
+  </si>
+  <si>
+    <t>MINDLAB</t>
+  </si>
+  <si>
+    <t>FABIO GONZALEZ OSORIO</t>
+  </si>
+  <si>
+    <t>FRANCISCO JOSE ROMAN CAMPOS</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000425</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN COMPATIBILIDAD ELECTROMAGNÉTICA EMC­UN</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001031</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN AFIS (ANÁLISIS DE FALLAS, INTEGRIDAD Y SUPERFICIES)</t>
+  </si>
+  <si>
+    <t>EDGAR ESPEJO MORA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003324</t>
+  </si>
+  <si>
+    <t>GNUM ­ GRUPO DE MODELADO Y MÉTODOS NUMERICOS EN INGENIERÍA</t>
+  </si>
+  <si>
+    <t>DIEGO ALEXANDER GARZON ALVARADO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000007660</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN MATERIALES, CATÁLISIS Y MEDIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>HUGO RICARDO ZEA RAMIREZ</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000440</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN PROCESOS QUÍMICOS Y BIOQUÍMICOS</t>
+  </si>
+  <si>
+    <t>RUBEN DARIO GODOY SILVA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001584</t>
+  </si>
+  <si>
+    <t>CIENCIA Y TECNOLOGÍA DE MATERIALES</t>
+  </si>
+  <si>
+    <t>LUZ MARINA OCAMPO CARMONA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008499</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001585</t>
+  </si>
+  <si>
+    <t>GRUPO DE AUTOMATICA DE LA UNIVERSIDAD NACIONAL - GAUNAL</t>
+  </si>
+  <si>
+    <t>JAIRO JOSE ESPINOSA OVIEDO</t>
+  </si>
+  <si>
+    <t>GRUPO DE HORTICULTURA -  INTERFACULTADES: AGRONOMIA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000500</t>
+  </si>
+  <si>
+    <t>ANIBAL ORLANDO HERRERA AREVALO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000014982</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN INGENIERÍA EN LA EDUCACIÓN STEM+B</t>
+  </si>
+  <si>
+    <t>MAURICIO DUQUE ESCOBAR</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000006598</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN SUELOS RESIDUALES Y PARCIALMENTE SATURADOS</t>
+  </si>
+  <si>
+    <t>JULIO ESTEBAN COLMENARES MONTANEZ</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004504</t>
+  </si>
+  <si>
+    <t>SOCIEDAD, ECONOMÍA Y PRODUCTIVIDAD ­ "SEPRO"</t>
+  </si>
+  <si>
+    <t>JUAN PABLO CASTRELLON TORRES</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000012226</t>
+  </si>
+  <si>
+    <t>ELECTRICAL MACHINES y DRIVES, EMD</t>
+  </si>
+  <si>
+    <t>JAVIER ROSERO GARCIA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000420</t>
+  </si>
+  <si>
+    <t>GRISEC</t>
+  </si>
+  <si>
+    <t>OMAR FREDY PRIAS CAICEDO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002203</t>
+  </si>
+  <si>
+    <t>CALIDAD DEL AIRE</t>
+  </si>
+  <si>
+    <t>NESTOR Y ROJAS ROA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000012036</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN CORROSIÓN, TRIBOLOGIA Y ENERGÍA</t>
+  </si>
+  <si>
+    <t>OSCAR EDWIN PIAMBA TULCAN</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002089</t>
+  </si>
+  <si>
+    <t>UN-ROBOT­ GRUPO DE PLATAFORMAS ROBÓTICAS</t>
+  </si>
+  <si>
+    <t>RICARDO EMIRO RAMIREZ HEREDIA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000001714</t>
+  </si>
+  <si>
+    <t>INGENIERIA DE LA SALUD</t>
+  </si>
+  <si>
+    <t>CARLOS HERNAN CAICEDO ESCOBAR</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002791</t>
+  </si>
+  <si>
+    <t>PRODUCTIVIDAD, COMPETITIVIDAD Y CALIDAD</t>
+  </si>
+  <si>
+    <t>HECTOR CIFUENTES AYA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003951</t>
+  </si>
+  <si>
+    <t>MIDAS: GRUPO DE INVESTIGACIÓN EN MINERÍA DE DATOS</t>
+  </si>
+  <si>
+    <t>ELIZABETH LEON GUZMAN</t>
+  </si>
+  <si>
+    <t>BIOMASA Y OPTIMIZACIÓN TÉRMICA DE PROCESOS ­ BIOT</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000003803</t>
+  </si>
+  <si>
+    <t>SONIA LUCIA RINCON PRAT</t>
+  </si>
+  <si>
+    <t>INNOVACIÓN EN PROCESOS DE MANUFACTURA E INGENIERÍA DE MATERIALES (IPMIM)</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000010573</t>
+  </si>
+  <si>
+    <t>RODOLFO RODRIGUEZ BARACALDO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000002641</t>
+  </si>
+  <si>
+    <t>GEOTECNOLOGÍAS - INTERFACULTADES: CIENCIAS</t>
+  </si>
+  <si>
+    <t>GERMAN VARGAS CUERVO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008630</t>
+  </si>
+  <si>
+    <t>GRUPO DE INGENIERÍA DE SISTEMAS DE PROCESO</t>
+  </si>
+  <si>
+    <t>CARLOS ARTURO MARTINEZ RIASCOS</t>
+  </si>
+  <si>
+    <t>TLÖN-Grupo de Investigación en Redes de Telecomunicaciones Dinámicas &amp; Lenguajes de Programación Distribuidos.</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000016352</t>
+  </si>
+  <si>
+    <t>JORGE EDUARDO ORTIZ TRIVINO</t>
+  </si>
+  <si>
+    <t>GRUPO DE INVESTIGACIÓN EN ELECTRÓNICA DE ALTA FRECUENCIA Y TELECOMUNICACIONES (CMUN)</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000011128</t>
+  </si>
+  <si>
+    <t>GLORIA MARGARITA VARON DURAN</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004254</t>
+  </si>
+  <si>
+    <t>PCM COMPUTATIONAL APPLICATIONS</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS RIANO ROJAS</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000733</t>
+  </si>
+  <si>
+    <t>GRUPO INTERDISCIPLINARIO DE INVESTIGACIÓN Y DESARROLLO EN GESTIÓN, PRODUCTIVIDAD Y COMPETITIVIDAD ­ BIOGESTIÓN</t>
+  </si>
+  <si>
+    <t>OSCAR FERNANDO CASTELLANOS DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004418</t>
+  </si>
+  <si>
+    <t>JONATAN GOMEZ PERDOMO</t>
+  </si>
+  <si>
+    <t>ALIFE: GRUPO DE INVESTIGACIÓN EN VIDA ARTIFICIAL</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000007768</t>
+  </si>
+  <si>
+    <t>Educación Informática para un Desarrollo Organizado y Sostenido EIDOS</t>
+  </si>
+  <si>
+    <t>JESUS ALFONSO PEREZ GAMA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000000442</t>
+  </si>
+  <si>
+    <t>MARTHA CRISTINA BUSTOS LOPEZ</t>
+  </si>
+  <si>
+    <t>Resiliencia y Saneamiento RESA</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000008706</t>
+  </si>
+  <si>
+    <t>COLECTIVO DE INVESTIGACIÓN EN INGENIERÍA DE SOFTWARE ­ COLSWE</t>
+  </si>
+  <si>
+    <t>JAIRO HERNAN APONTE MELO</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000004465</t>
+  </si>
+  <si>
+    <t>Algoritmos y Combinatoria (ALGOS­UN)</t>
+  </si>
+  <si>
+    <t>GERMAN JAIRO HERNANDEZ PEREZ</t>
+  </si>
+  <si>
+    <t>http://scienti.colciencias.gov.co:8085/gruplac/jsp/visualiza/visualizagr.jsp?nro=00000000018409</t>
+  </si>
+  <si>
+    <t>PLAS -  Programming Languages and Systems</t>
+  </si>
+  <si>
+    <t>FELIPE RESTREPO CALLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +520,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -162,13 +554,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -450,16 +843,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
     <col min="3" max="3" width="87.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -475,105 +868,581 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
-    <hyperlink ref="C3" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C10" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/GrupLAC/Input/Base.xlsx
+++ b/GrupLAC/Input/Base.xlsx
@@ -554,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -562,6 +562,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -845,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,7 +1227,7 @@
       <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="7" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1441,8 +1442,9 @@
     <hyperlink ref="C11" r:id="rId9"/>
     <hyperlink ref="C12" r:id="rId10"/>
     <hyperlink ref="C10" r:id="rId11"/>
+    <hyperlink ref="C34" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>